--- a/formatted_cashflow.xlsx
+++ b/formatted_cashflow.xlsx
@@ -919,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>45992</v>
+        <v>45627</v>
       </c>
       <c r="C5" s="2">
         <v>40812628333475</v>
